--- a/KetoGator/Current Patients/12345/DataBases/Data/12345_Anthropometrics_Source.xlsx
+++ b/KetoGator/Current Patients/12345/DataBases/Data/12345_Anthropometrics_Source.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,77 +530,77 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11301994</v>
+        <v>556526161</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11/30/1994</t>
+          <t>07/17/2020</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>109</v>
+        <v>4547</v>
       </c>
       <c r="H2" t="n">
-        <v>111</v>
+        <v>454</v>
       </c>
       <c r="I2" t="n">
-        <v>20</v>
+        <v>4545</v>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>454</v>
       </c>
       <c r="K2" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="L2" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="O2" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="P2" t="n">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>DC-11/30/2020</t>
+          <t>4545</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>SUP</t>
+          <t>454545</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11301994</v>
+        <v>23424</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12/1/1994</t>
+          <t>07/17/2020</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -612,46 +612,108 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>23423</v>
       </c>
       <c r="H3" t="n">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="I3" t="n">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="J3" t="n">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="K3" t="n">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="L3" t="n">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="N3" t="n">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="O3" t="n">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="P3" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+        <v>234</v>
+      </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>DC-12/1/2020</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr"/>
+          <t>234</t>
+        </is>
+      </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>SUP2</t>
+          <t>234</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>222</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>07/17/2020</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22</v>
+      </c>
+      <c r="H4" t="n">
+        <v>33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>444</v>
+      </c>
+      <c r="J4" t="n">
+        <v>33</v>
+      </c>
+      <c r="K4" t="n">
+        <v>33</v>
+      </c>
+      <c r="L4" t="n">
+        <v>33</v>
+      </c>
+      <c r="M4" t="n">
+        <v>33</v>
+      </c>
+      <c r="N4" t="n">
+        <v>33</v>
+      </c>
+      <c r="O4" t="n">
+        <v>44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>sdfsf</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>sdfsfsdfsfsfs</t>
         </is>
       </c>
     </row>
